--- a/doc/Projektdetails_WS24_Gruppe_2.xlsx
+++ b/doc/Projektdetails_WS24_Gruppe_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Documents/FH/Sem3/Objektorientierte_Dienstentwicklung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Desktop/BlackJack/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61B6EE-11E7-4144-BF7D-42B94B519880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1C7F1-D56C-BF4B-9965-6C5F71FD70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
   <si>
     <t>Informationen</t>
   </si>
@@ -897,15 +897,6 @@
   </si>
   <si>
     <t>Plannung und Organisation</t>
-  </si>
-  <si>
-    <t>Must have feature Implementierung</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>noch nicht gemerged</t>
   </si>
   <si>
     <t>Aufteilung der Themen
@@ -8809,7 +8800,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8883,7 +8874,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>146</v>
@@ -8909,47 +8900,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="42">
-      <c r="B7" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="42">
-      <c r="B8" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="42">
-      <c r="B9" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>156</v>
-      </c>
+    <row r="7" spans="2:7" ht="13">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:7" ht="13">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:7" ht="13">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Projektdetails_WS24_Gruppe_2.xlsx
+++ b/doc/Projektdetails_WS24_Gruppe_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Desktop/BlackJack/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Documents/workspace/ode/BlackJack/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1C7F1-D56C-BF4B-9965-6C5F71FD70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDFE95-084C-F34F-A3BD-7EC1F1DF5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
   <si>
     <t>Informationen</t>
   </si>
@@ -902,6 +902,21 @@
     <t>Aufteilung der Themen
 Wie werden Entscheidungen getroffen
 UI Design</t>
+  </si>
+  <si>
+    <t>US Kartenverteilung implementiert</t>
+  </si>
+  <si>
+    <t>US Spieleraktion Hit  implementiert</t>
+  </si>
+  <si>
+    <t>Die user story "Kartenverteilung" wurde implementiert"</t>
+  </si>
+  <si>
+    <t>Die user story "Spieleraktion Hit" wurde implementiert"</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -8799,8 +8814,8 @@
   </sheetPr>
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8928,17 +8943,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8961,6 +8976,40 @@
       </c>
       <c r="G2" s="12" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="42">
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="52" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Projektdetails_WS24_Gruppe_2.xlsx
+++ b/doc/Projektdetails_WS24_Gruppe_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Documents/workspace/ode/BlackJack/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijakostic/Desktop/BlackJack/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDFE95-084C-F34F-A3BD-7EC1F1DF5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC08684-5873-364A-9997-BDB1C4D470CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="168">
   <si>
     <t>Informationen</t>
   </si>
@@ -195,85 +195,13 @@
     <t xml:space="preserve">    Keine anderen Libraries/Frameworks verwendet</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;Must have feature 1&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Must have feature 1&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Must have feature 2&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Must have feature 2&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Must have feature 3&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Must have feature 3&gt; getestet</t>
-  </si>
-  <si>
     <t>Should haves</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;Should have feature 1&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Should have feature 1&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Should have feature 2&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Should have feature 2&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Should have feature 3&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Should have feature 3&gt; getestet</t>
-  </si>
-  <si>
     <t>Nice to haves</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 1&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 1&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 2&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 2&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 3&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Nice to have feature 3&gt; getestet</t>
-  </si>
-  <si>
     <t>Overkill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 1&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 1&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 2&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 2&gt; getestet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 3&gt; erledigt und gemerged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Overkill feature 3&gt; getestet</t>
   </si>
   <si>
     <t>Präsentations slot ist eingetragen (moodle)</t>
@@ -917,6 +845,102 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>US "Spielergebnisse speichern"</t>
+  </si>
+  <si>
+    <t>Spielerergebnisse in einem File speichern</t>
+  </si>
+  <si>
+    <t>Fertig/nicht gepusht nur lokal</t>
+  </si>
+  <si>
+    <t>US "Spielerlimit überwachen"</t>
+  </si>
+  <si>
+    <t>US "Session starten"</t>
+  </si>
+  <si>
+    <t>mit dem Spielserver über TCP verbinden</t>
+  </si>
+  <si>
+    <t>US "Spieleraktion Stand"</t>
+  </si>
+  <si>
+    <t>Button Stand implementieren</t>
+  </si>
+  <si>
+    <t>US "Siegerermittlung"</t>
+  </si>
+  <si>
+    <t>Sieger der Spielrunde ermitteln</t>
+  </si>
+  <si>
+    <t>Javadoc &amp; Readme</t>
+  </si>
+  <si>
+    <t>Javadoc comments wiurden ergänzt und Readme.md angepasst</t>
+  </si>
+  <si>
+    <t>US "Wetteinsatz" &amp; "Automatischer Einsatzabzug" implementiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Multiplayer über TCP/UDP erledigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Maximale Spieleranzahl erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Zufällige Kartenverteilung erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hit Button erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Stand Button erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FIleIO erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Neu Runde starten erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wetteinsatz erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Automatischer Abzug des Wetteinsatzes erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gewinnberechnung erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Blackjack gewinn erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Double Button erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ass Wert bestimmen erledigt und gemerged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Karten als Deck erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unit Tests erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Karten als Bilder erldeigt, gemerged und getestet</t>
+  </si>
+  <si>
+    <t>nein, noch auf sidebranch</t>
+  </si>
+  <si>
+    <t>Die User Story "Automatischer Gewinnabzug" wurden implementiert</t>
+  </si>
+  <si>
+    <t>bleibt auf sidebranch. Wir waren uns nicht sicher ob es zu 100% funktioniert, daher auf sidebranch.</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1356,8 @@
   </sheetPr>
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1349,7 +1373,7 @@
     </row>
     <row r="3" spans="2:2" ht="196">
       <c r="B3" s="20" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="13">
@@ -1377,10 +1401,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C1050"/>
+  <dimension ref="B1:C1042"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1416,330 +1440,362 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="13">
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="13">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="13">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="13">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="13">
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="13">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="13">
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="13">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="13">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="13">
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="13">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="13">
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="13">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="13">
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="13">
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13">
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="13">
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="13">
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="13">
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="13">
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="13">
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="13">
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="13">
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="13">
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="13">
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="13">
       <c r="B30" s="5"/>
       <c r="C30" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="13">
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="13">
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="13">
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="13">
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="13">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7" t="s">
-        <v>38</v>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="13">
       <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="13">
-      <c r="B37" s="5"/>
-      <c r="C37" s="8" t="s">
-        <v>40</v>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="13">
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="13">
-      <c r="B39" s="3"/>
-      <c r="C39" s="7" t="s">
-        <v>42</v>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="13">
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="13">
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="13">
       <c r="B42" s="3"/>
       <c r="C42" s="7" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="13">
-      <c r="B43" s="3"/>
-      <c r="C43" s="7" t="s">
-        <v>46</v>
+      <c r="B43" s="5"/>
+      <c r="C43" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="13">
-      <c r="B44" s="5"/>
-      <c r="C44" s="8" t="s">
-        <v>47</v>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="13">
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="13">
       <c r="B46" s="3"/>
-      <c r="C46" s="7" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="47" spans="2:3" ht="13">
       <c r="B47" s="3"/>
-      <c r="C47" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="48" spans="2:3" ht="13">
       <c r="B48" s="3"/>
-      <c r="C48" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="13">
+    </row>
+    <row r="49" spans="2:2" ht="13">
       <c r="B49" s="3"/>
-      <c r="C49" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="13">
+    </row>
+    <row r="50" spans="2:2" ht="13">
       <c r="B50" s="3"/>
-      <c r="C50" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="13">
-      <c r="B51" s="5"/>
-      <c r="C51" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="13">
+    </row>
+    <row r="51" spans="2:2" ht="13">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" ht="13">
       <c r="B52" s="3"/>
-      <c r="C52" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="13">
+    </row>
+    <row r="53" spans="2:2" ht="13">
       <c r="B53" s="3"/>
-      <c r="C53" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="13">
+    </row>
+    <row r="54" spans="2:2" ht="13">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:3" ht="13">
+    <row r="55" spans="2:2" ht="13">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:3" ht="13">
+    <row r="56" spans="2:2" ht="13">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:3" ht="13">
+    <row r="57" spans="2:2" ht="13">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:3" ht="13">
+    <row r="58" spans="2:2" ht="13">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:3" ht="13">
+    <row r="59" spans="2:2" ht="13">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:3" ht="13">
+    <row r="60" spans="2:2" ht="13">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:3" ht="13">
+    <row r="61" spans="2:2" ht="13">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:3" ht="13">
+    <row r="62" spans="2:2" ht="13">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:3" ht="13">
+    <row r="63" spans="2:2" ht="13">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:3" ht="13">
+    <row r="64" spans="2:2" ht="13">
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2" ht="13">
@@ -4675,30 +4731,6 @@
     </row>
     <row r="1042" spans="2:2" ht="13">
       <c r="B1042" s="3"/>
-    </row>
-    <row r="1043" spans="2:2" ht="13">
-      <c r="B1043" s="3"/>
-    </row>
-    <row r="1044" spans="2:2" ht="13">
-      <c r="B1044" s="3"/>
-    </row>
-    <row r="1045" spans="2:2" ht="13">
-      <c r="B1045" s="3"/>
-    </row>
-    <row r="1046" spans="2:2" ht="13">
-      <c r="B1046" s="3"/>
-    </row>
-    <row r="1047" spans="2:2" ht="13">
-      <c r="B1047" s="3"/>
-    </row>
-    <row r="1048" spans="2:2" ht="13">
-      <c r="B1048" s="3"/>
-    </row>
-    <row r="1049" spans="2:2" ht="13">
-      <c r="B1049" s="3"/>
-    </row>
-    <row r="1050" spans="2:2" ht="13">
-      <c r="B1050" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4712,8 +4744,8 @@
   </sheetPr>
   <dimension ref="B1:C1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4729,54 +4761,54 @@
     </row>
     <row r="2" spans="2:3" ht="14">
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="61.5" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="13">
       <c r="B4" s="21" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="13">
       <c r="B5" s="22"/>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="13">
       <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="14">
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28">
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="13">
@@ -4785,106 +4817,106 @@
     </row>
     <row r="10" spans="2:3" ht="13">
       <c r="B10" s="21" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="56">
       <c r="B11" s="22"/>
       <c r="C11" s="11" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="42">
       <c r="B12" s="22"/>
       <c r="C12" s="19" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="28">
       <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="168">
       <c r="B14" s="22"/>
       <c r="C14" s="11" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28">
       <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="28">
       <c r="B16" s="21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28">
       <c r="B17" s="22"/>
       <c r="C17" s="19" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28">
       <c r="B18" s="22"/>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="56">
       <c r="B19" s="22"/>
       <c r="C19" s="11" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28">
       <c r="B20" s="21" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="56">
       <c r="B21" s="22"/>
       <c r="C21" s="11" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="56">
       <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="13">
       <c r="B23" s="21" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="42">
       <c r="B24" s="22"/>
       <c r="C24" s="19" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="13">
       <c r="B25" s="22"/>
       <c r="C25" s="18" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="13">
@@ -8815,7 +8847,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8829,90 +8861,90 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="42">
       <c r="B3" s="18" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="56">
       <c r="B5" s="18" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="13">
@@ -8945,8 +8977,8 @@
   </sheetPr>
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8960,56 +8992,56 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="42">
       <c r="B3" s="18" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="52" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -9022,39 +9054,122 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1">
+    <row r="2" spans="2:7" ht="34" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="33" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="56" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
+    </row>
+    <row r="5" spans="2:7" ht="40" customHeight="1">
+      <c r="B5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="37" customHeight="1">
+      <c r="B6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -9067,41 +9182,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="37" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" spans="2:7" ht="111" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9115,7 +9268,7 @@
   <dimension ref="B1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -9131,54 +9284,54 @@
     </row>
     <row r="2" spans="2:3" ht="14">
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="61.5" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="13">
       <c r="B4" s="21" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="13">
       <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="13">
       <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="14">
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="14">
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="13">
@@ -9187,22 +9340,22 @@
     </row>
     <row r="10" spans="2:3" ht="13">
       <c r="B10" s="23" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="13">
       <c r="B11" s="22"/>
       <c r="C11" s="10" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="13">
       <c r="B12" s="22"/>
       <c r="C12" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="13">
@@ -9211,22 +9364,22 @@
     </row>
     <row r="14" spans="2:3" ht="13">
       <c r="B14" s="23" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="13">
       <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="13">
       <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
@@ -9234,22 +9387,22 @@
     </row>
     <row r="18" spans="2:3" ht="13">
       <c r="B18" s="23" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="13">
       <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13">
       <c r="B20" s="22"/>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1">
@@ -9257,22 +9410,22 @@
     </row>
     <row r="22" spans="2:3" ht="13">
       <c r="B22" s="23" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="13">
       <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="13">
       <c r="B24" s="22"/>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1">
@@ -13206,7 +13359,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView topLeftCell="C3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -13221,183 +13374,183 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>1.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>0.25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
         <v>1.5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
